--- a/.dev/zuper_registers.xlsx
+++ b/.dev/zuper_registers.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
@@ -73,6 +73,39 @@
   </si>
   <si>
     <t>teste</t>
+  </si>
+  <si>
+    <t>Vinicius Ferreir</t>
+  </si>
+  <si>
+    <t>2042010</t>
+  </si>
+  <si>
+    <t>Duda Santos</t>
+  </si>
+  <si>
+    <t>Rua Alvares Machado</t>
+  </si>
+  <si>
+    <t>264795</t>
+  </si>
+  <si>
+    <t>Maria Oliveira</t>
+  </si>
+  <si>
+    <t>Rua Alvares 2</t>
+  </si>
+  <si>
+    <t>2313453</t>
+  </si>
+  <si>
+    <t>Maria Santos</t>
+  </si>
+  <si>
+    <t>Rua jorge amado</t>
+  </si>
+  <si>
+    <t>91701153890</t>
   </si>
 </sst>
 </file>
@@ -325,7 +358,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -457,6 +490,104 @@
         <v>16</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="n" s="0">
+        <v>691.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n" s="0">
+        <v>578.0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n" s="0">
+        <v>130.0</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n" s="0">
+        <v>186.0</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n" s="0">
+        <v>654.0</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n" s="0">
+        <v>757.0</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
